--- a/DATA_goal/Junction_Flooding_225.xlsx
+++ b/DATA_goal/Junction_Flooding_225.xlsx
@@ -451,14 +451,14 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -467,10 +467,10 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41657.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.68</v>
+        <v>2.27</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>47.71</v>
+        <v>4.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.46</v>
+        <v>3.95</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.85</v>
+        <v>1.78</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>59.09</v>
+        <v>5.91</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.46</v>
+        <v>2.75</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.91</v>
+        <v>1.89</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.81</v>
+        <v>1.98</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.75</v>
+        <v>1.77</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.96</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>262.76</v>
+        <v>26.28</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>49.41</v>
+        <v>4.94</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.38</v>
+        <v>1.64</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.79</v>
+        <v>3.28</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.1</v>
+        <v>1.71</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.4</v>
+        <v>2.94</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.47</v>
+        <v>1.45</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.57</v>
+        <v>1.96</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>52.17</v>
+        <v>5.22</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.48</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41657.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.45</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>11.27</v>
+        <v>1.13</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.34</v>
+        <v>0.93</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>21.98</v>
+        <v>2.2</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.13</v>
+        <v>0.41</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.55</v>
+        <v>0.46</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.62</v>
+        <v>0.46</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>57.97</v>
+        <v>5.8</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>20.12</v>
+        <v>2.01</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.95</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41657.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.82</v>
+        <v>0.68</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.67</v>
+        <v>0.47</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>14.42</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>21.39</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>73.92</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>14.91</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>9.970000000000001</v>
-      </c>
       <c r="AA4" s="4" t="n">
-        <v>4.35</v>
+        <v>0.44</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.68</v>
+        <v>0.47</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.08</v>
+        <v>1.91</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41657.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.55</v>
+        <v>0.26</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.03</v>
+        <v>0.3</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.32</v>
+        <v>0.33</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.34</v>
+        <v>0.33</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.2</v>
+        <v>0.42</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.73</v>
+        <v>0.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD5" s="4" t="n">
         <v>0.34</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>38.47</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>3.42</v>
-      </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.45</v>
+        <v>1.25</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41657.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>24.62</v>
+        <v>2.46</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>20.37</v>
+        <v>2.04</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>32.03</v>
+        <v>3.2</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>13.85</v>
+        <v>1.38</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>10.39</v>
+        <v>1.04</v>
       </c>
       <c r="N6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF6" s="4" t="n">
         <v>2.87</v>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>128.84</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.64</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.73</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>28.66</v>
-      </c>
       <c r="AG6" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41657.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>11.62</v>
+        <v>1.16</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>34.07</v>
+        <v>3.41</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>28.17</v>
+        <v>2.82</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>46.84</v>
+        <v>4.68</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>19.08</v>
+        <v>1.91</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>12.65</v>
+        <v>1.27</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>13.77</v>
+        <v>1.38</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>10.39</v>
+        <v>1.04</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>180.37</v>
+        <v>18.04</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>34.46</v>
+        <v>3.45</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>23.16</v>
+        <v>2.32</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>22.96</v>
+        <v>2.3</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>10.05</v>
+        <v>1.01</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>42.41</v>
+        <v>4.24</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.41</v>
+        <v>0.64</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41657.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>21.62</v>
+        <v>2.16</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16.05</v>
+        <v>1.61</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>46.85</v>
+        <v>4.68</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>38.74</v>
+        <v>3.87</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>65.20999999999999</v>
+        <v>6.52</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>26.18</v>
+        <v>2.62</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.68</v>
+        <v>1.17</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.43</v>
+        <v>1.74</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>18.89</v>
+        <v>1.89</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>19.84</v>
+        <v>1.98</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.43</v>
+        <v>0.54</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>24.12</v>
+        <v>2.41</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.17</v>
+        <v>1.42</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>250.2</v>
+        <v>25.02</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>47.3</v>
+        <v>4.73</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>31.89</v>
+        <v>3.19</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>16.88</v>
+        <v>1.69</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.15</v>
+        <v>0.21</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>31.86</v>
+        <v>3.19</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.79</v>
+        <v>1.38</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.19</v>
+        <v>1.22</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.33</v>
+        <v>1.43</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>19.8</v>
+        <v>1.98</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>59.12</v>
+        <v>5.91</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>19.52</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41657.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>19.12</v>
+        <v>1.91</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>41.44</v>
+        <v>4.14</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>34.26</v>
+        <v>3.43</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>15.05</v>
+        <v>1.5</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>59.57</v>
+        <v>5.96</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>23.15</v>
+        <v>2.32</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>10.33</v>
+        <v>1.03</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>16.72</v>
+        <v>1.67</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>17.55</v>
+        <v>1.76</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>21.34</v>
+        <v>2.13</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>12.53</v>
+        <v>1.25</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>220.45</v>
+        <v>22.04</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>41.88</v>
+        <v>4.19</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>28.23</v>
+        <v>2.82</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>14.93</v>
+        <v>1.49</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>28.77</v>
+        <v>2.88</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>10.78</v>
+        <v>1.08</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>17.52</v>
+        <v>1.75</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>54.03</v>
+        <v>5.4</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.81</v>
+        <v>0.78</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>17.27</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="10">
@@ -1487,13 +1487,13 @@
         <v>41657.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>0</v>
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="K10" s="4" t="n">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="R10" s="4" t="n">
         <v>0</v>
@@ -1544,46 +1544,46 @@
         <v>0</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="Y10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB10" s="4" t="n">
         <v>0.02</v>
       </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.2</v>
-      </c>
       <c r="AC10" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AE10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>9.35</v>
+        <v>0.93</v>
       </c>
       <c r="AG10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="4" t="n">
         <v>0.02</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.22</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_225.xlsx
+++ b/DATA_goal/Junction_Flooding_225.xlsx
@@ -443,21 +443,21 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
@@ -465,17 +465,17 @@
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44906.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>0.97</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="O2" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>60.45</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44906.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.65</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.5</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.82</v>
+        <v>28.23</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.39</v>
+        <v>23.86</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.62</v>
+        <v>36.18</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.37</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.62</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.66</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.93</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.2</v>
+        <v>11.98</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.15</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.25</v>
+        <v>152.53</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.93</v>
+        <v>29.34</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.95</v>
+        <v>19.52</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.73</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.56</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.3</v>
+        <v>13.04</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.28</v>
+        <v>32.75</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.48</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44906.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.97</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.91</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.44</v>
+        <v>24.4</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.05</v>
+        <v>20.52</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.16</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.54</v>
+        <v>35.41</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.49</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.84</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.88</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.37</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.3</v>
+        <v>12.99</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.24</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>12.98</v>
+        <v>129.78</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.53</v>
+        <v>25.27</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.02</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.89</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.67</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.54</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.34</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.13</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.1</v>
+        <v>11.04</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.23</v>
+        <v>32.27</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.72</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44906.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.62</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.48</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.35</v>
+        <v>23.53</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.97</v>
+        <v>19.71</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.75</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.42</v>
+        <v>34.18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.47</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.18</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.33</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.27</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1</v>
+        <v>10.01</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.35</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.42</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>12.41</v>
+        <v>124.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.42</v>
+        <v>24.2</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.62</v>
+        <v>16.23</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.76</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.7</v>
+        <v>7.04</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.7</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.93</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.1</v>
+        <v>31.04</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_225.xlsx
+++ b/DATA_goal/Junction_Flooding_225.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44906.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.28</v>
+        <v>4.284</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.27</v>
+        <v>5.265</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.41</v>
+        <v>10.407</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.715</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.08</v>
+        <v>5.079</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.36</v>
+        <v>10.361</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.86</v>
+        <v>6.858</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.66</v>
+        <v>3.662</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.22</v>
+        <v>6.216</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.25</v>
+        <v>7.246</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.31</v>
+        <v>4.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.973</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.63</v>
+        <v>3.629</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.54</v>
+        <v>6.538</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.61</v>
+        <v>2.613</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>0.117</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.053</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.45</v>
+        <v>60.452</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.19</v>
+        <v>12.195</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>3.56</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.36</v>
+        <v>7.364</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.73</v>
+        <v>6.727</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.83</v>
+        <v>0.825</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.7</v>
+        <v>5.701</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>3.6</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.538</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.243</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>6.732</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.52</v>
+        <v>8.518000000000001</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.2</v>
+        <v>5.204</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44906.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.65</v>
+        <v>12.649</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>10.5</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>28.23</v>
+        <v>28.233</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.86</v>
+        <v>23.864</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>10.76</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>36.18</v>
+        <v>36.175</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.37</v>
+        <v>16.366</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.62</v>
+        <v>7.619</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>11.66</v>
+        <v>11.659</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.93</v>
+        <v>12.926</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>11.98</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.11</v>
+        <v>3.107</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10</v>
+        <v>9.996</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.15</v>
+        <v>15.151</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>8.297000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.128</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.249</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>152.53</v>
+        <v>152.528</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>29.34</v>
+        <v>29.336</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.31</v>
+        <v>9.314</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.52</v>
+        <v>19.517</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.53</v>
+        <v>11.528</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.46</v>
+        <v>1.457</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.73</v>
+        <v>18.727</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.56</v>
+        <v>8.555</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>8.59</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>8.143000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>13.04</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.237</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>32.75</v>
+        <v>32.755</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.48</v>
+        <v>5.485</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.15</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44906.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.97</v>
+        <v>10.968</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>8.91</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.604</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>24.4</v>
+        <v>24.405</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.52</v>
+        <v>20.517</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>9.16</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>35.41</v>
+        <v>35.411</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.06</v>
+        <v>14.056</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.49</v>
+        <v>6.491</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.84</v>
+        <v>9.842000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.88</v>
+        <v>10.878</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.37</v>
+        <v>10.373</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.71</v>
+        <v>2.706</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.644</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.99</v>
+        <v>12.987</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.24</v>
+        <v>7.245</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.103</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.21</v>
+        <v>0.211</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>129.78</v>
+        <v>129.784</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.27</v>
+        <v>25.266</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.02</v>
+        <v>8.023999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.89</v>
+        <v>16.889</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>9.67</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.22</v>
+        <v>1.221</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.54</v>
+        <v>17.543</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.34</v>
+        <v>7.343</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.14</v>
+        <v>7.144</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>7.13</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.04</v>
+        <v>11.038</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>32.27</v>
+        <v>32.274</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.72</v>
+        <v>4.724</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>9.98</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44906.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>30.18</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>106.99</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>21.06</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.73</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.42</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.68</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_225.xlsx
+++ b/DATA_goal/Junction_Flooding_225.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44906.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.62</v>
+        <v>10.615</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.48</v>
+        <v>8.481999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.534</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.53</v>
+        <v>23.532</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.71</v>
+        <v>19.709</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.75</v>
+        <v>8.747</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.18</v>
+        <v>34.179</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.47</v>
+        <v>13.469</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.18</v>
+        <v>6.177</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.33</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.27</v>
+        <v>10.266</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.01</v>
+        <v>10.007</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.63</v>
+        <v>2.628</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.35</v>
+        <v>8.353</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.42</v>
+        <v>12.423</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.02</v>
+        <v>7.017</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.096</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.22</v>
+        <v>0.215</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>124.12</v>
+        <v>124.118</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>24.2</v>
+        <v>24.199</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.74</v>
+        <v>7.735</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.23</v>
+        <v>16.226</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.114000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.16</v>
+        <v>1.156</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.76</v>
+        <v>16.758</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.04</v>
+        <v>7.042</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.7</v>
+        <v>6.696</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.93</v>
+        <v>6.934</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.48</v>
+        <v>10.481</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.04</v>
+        <v>31.038</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.54</v>
+        <v>4.537</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44906.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>30.18</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>106.99</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>27.42</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.68</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_225.xlsx
+++ b/DATA_goal/Junction_Flooding_225.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44906.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.615</v>
+        <v>10.62</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.481999999999999</v>
+        <v>8.48</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.534</v>
+        <v>0.53</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.532</v>
+        <v>23.53</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.709</v>
+        <v>19.71</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.747</v>
+        <v>8.75</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>34.179</v>
+        <v>34.18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.469</v>
+        <v>13.47</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.177</v>
+        <v>6.18</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.327999999999999</v>
+        <v>9.33</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.266</v>
+        <v>10.27</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.007</v>
+        <v>10.01</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.628</v>
+        <v>2.63</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.353</v>
+        <v>8.35</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.423</v>
+        <v>12.42</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.017</v>
+        <v>7.02</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.096</v>
+        <v>0.1</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>124.118</v>
+        <v>124.12</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>24.199</v>
+        <v>24.2</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.735</v>
+        <v>7.74</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.226</v>
+        <v>16.23</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.114000000000001</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.156</v>
+        <v>1.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>16.758</v>
+        <v>16.76</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.042</v>
+        <v>7.04</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.696</v>
+        <v>6.7</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.934</v>
+        <v>6.93</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.481</v>
+        <v>10.48</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.138</v>
+        <v>0.14</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.038</v>
+        <v>31.04</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.537</v>
+        <v>4.54</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.978999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44906.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>30.18</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>106.99</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>21.06</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.73</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>27.42</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.68</v>
+        <v>9.98</v>
       </c>
     </row>
   </sheetData>
